--- a/biology/Zoologie/Champsodon/Champsodon.xlsx
+++ b/biology/Zoologie/Champsodon/Champsodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Champsodon est un genre de poissons de l'ordre des Acropomatiformes. Il est l'unique représentant de la famille des Champsodontidae. Il présent dans les Océans Indien et Pacifique.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (18 mars 2024)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (18 mars 2024) :
 Champsodon atridorsalis Ochiai &amp; Nakamura, 1964
 Champsodon capensis Regan, 1908
 Champsodon fimbriatus Gilbert, 1905
@@ -554,10 +568,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Champsodon Günther, 1867[1].
-Champsodon a pour synonyme[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Champsodon Günther, 1867.
+Champsodon a pour synonyme :
 Centropercis Ogilby, 1895</t>
         </is>
       </c>
@@ -586,7 +602,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Günther, A. (1867). Descriptions of some new or little-known species of fishes in the collection of the British Museum. Proceedings of the Zoological Society of London 1867. (pt 1) (art. 2): 99-104, Pl. 10.</t>
         </is>
